--- a/master_dataset.xlsx
+++ b/master_dataset.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -22,12 +22,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="57">
   <si>
     <t>STATE</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Number</t>
   </si>
   <si>
     <t>Percent</t>
@@ -189,7 +183,13 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Mortality Rate</t>
+    <t>Number (1000s)</t>
+  </si>
+  <si>
+    <t>Total (1000s)</t>
+  </si>
+  <si>
+    <t>Mortality Rate (1,000s)</t>
   </si>
 </sst>
 </file>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection sqref="A1:F358"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,16 +584,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>56</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>3831</v>
@@ -616,12 +616,12 @@
         <v>1980</v>
       </c>
       <c r="F2">
-        <v>516.87</v>
+        <v>5.1687000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>379</v>
@@ -636,12 +636,12 @@
         <v>1980</v>
       </c>
       <c r="F3">
-        <v>436.87</v>
+        <v>4.3687000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2774</v>
@@ -656,12 +656,12 @@
         <v>1980</v>
       </c>
       <c r="F4">
-        <v>413.7</v>
+        <v>4.1369999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2249</v>
@@ -676,12 +676,12 @@
         <v>1980</v>
       </c>
       <c r="F5">
-        <v>520.61</v>
+        <v>5.2061000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>23748</v>
@@ -696,12 +696,12 @@
         <v>1980</v>
       </c>
       <c r="F6">
-        <v>478.25</v>
+        <v>4.7824999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2869</v>
@@ -716,12 +716,12 @@
         <v>1980</v>
       </c>
       <c r="F7">
-        <v>401.63</v>
+        <v>4.0163000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>3090</v>
@@ -736,12 +736,12 @@
         <v>1980</v>
       </c>
       <c r="F8">
-        <v>470.72</v>
+        <v>4.7072000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>578</v>
@@ -756,12 +756,12 @@
         <v>1980</v>
       </c>
       <c r="F9">
-        <v>533.37</v>
+        <v>5.3337000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>626</v>
@@ -776,12 +776,12 @@
         <v>1980</v>
       </c>
       <c r="F10">
-        <v>522.75</v>
+        <v>5.2275</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>10100</v>
@@ -796,12 +796,12 @@
         <v>1980</v>
       </c>
       <c r="F11">
-        <v>448.93</v>
+        <v>4.4893000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>5243</v>
@@ -816,12 +816,12 @@
         <v>1980</v>
       </c>
       <c r="F12">
-        <v>540.61</v>
+        <v>5.4061000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>954</v>
@@ -836,12 +836,12 @@
         <v>1980</v>
       </c>
       <c r="F13">
-        <v>360.23</v>
+        <v>3.6023000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>934</v>
@@ -856,12 +856,12 @@
         <v>1980</v>
       </c>
       <c r="F14">
-        <v>418.32</v>
+        <v>4.1832000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>11259</v>
@@ -876,12 +876,12 @@
         <v>1980</v>
       </c>
       <c r="F15">
-        <v>544.54999999999995</v>
+        <v>5.4454999999999991</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>5490</v>
@@ -896,12 +896,12 @@
         <v>1980</v>
       </c>
       <c r="F16">
-        <v>525.12</v>
+        <v>5.2511999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>2868</v>
@@ -916,12 +916,12 @@
         <v>1980</v>
       </c>
       <c r="F17">
-        <v>457.67</v>
+        <v>4.5766999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>2286</v>
@@ -936,12 +936,12 @@
         <v>1980</v>
       </c>
       <c r="F18">
-        <v>448.91</v>
+        <v>4.4891000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>3641</v>
@@ -956,12 +956,12 @@
         <v>1980</v>
       </c>
       <c r="F19">
-        <v>536.01</v>
+        <v>5.3601000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>4273</v>
@@ -976,12 +976,12 @@
         <v>1980</v>
       </c>
       <c r="F20">
-        <v>560.38</v>
+        <v>5.6037999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>1077</v>
@@ -996,12 +996,12 @@
         <v>1980</v>
       </c>
       <c r="F21">
-        <v>473.97</v>
+        <v>4.7397</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>4104</v>
@@ -1016,12 +1016,12 @@
         <v>1980</v>
       </c>
       <c r="F22">
-        <v>503.87</v>
+        <v>5.0387000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>5725</v>
@@ -1036,12 +1036,12 @@
         <v>1980</v>
       </c>
       <c r="F23">
-        <v>471.96</v>
+        <v>4.7195999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>9227</v>
@@ -1056,12 +1056,12 @@
         <v>1980</v>
       </c>
       <c r="F24">
-        <v>545.49</v>
+        <v>5.4549000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>3920</v>
@@ -1076,12 +1076,12 @@
         <v>1980</v>
       </c>
       <c r="F25">
-        <v>423.86</v>
+        <v>4.2385999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>2429</v>
@@ -1096,12 +1096,12 @@
         <v>1980</v>
       </c>
       <c r="F26">
-        <v>572.80999999999995</v>
+        <v>5.7280999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>4800</v>
@@ -1116,12 +1116,12 @@
         <v>1980</v>
       </c>
       <c r="F27">
-        <v>515.03</v>
+        <v>5.1502999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>774</v>
@@ -1136,12 +1136,12 @@
         <v>1980</v>
       </c>
       <c r="F28">
-        <v>424.79</v>
+        <v>4.2479000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>1532</v>
@@ -1156,12 +1156,12 @@
         <v>1980</v>
       </c>
       <c r="F29">
-        <v>460.42</v>
+        <v>4.6042000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>840</v>
@@ -1176,12 +1176,12 @@
         <v>1980</v>
       </c>
       <c r="F30">
-        <v>502.48</v>
+        <v>5.0247999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>907</v>
@@ -1196,12 +1196,12 @@
         <v>1980</v>
       </c>
       <c r="F31">
-        <v>466.18</v>
+        <v>4.6618000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>7316</v>
@@ -1216,12 +1216,12 @@
         <v>1980</v>
       </c>
       <c r="F32">
-        <v>547.33000000000004</v>
+        <v>5.4733000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>1304</v>
@@ -1236,12 +1236,12 @@
         <v>1980</v>
       </c>
       <c r="F33">
-        <v>377.96</v>
+        <v>3.7795999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>17321</v>
@@ -1256,12 +1256,12 @@
         <v>1980</v>
       </c>
       <c r="F34">
-        <v>571.46</v>
+        <v>5.7146000000000008</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>5836</v>
@@ -1276,12 +1276,12 @@
         <v>1980</v>
       </c>
       <c r="F35">
-        <v>527.5</v>
+        <v>5.2750000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>640</v>
@@ -1296,12 +1296,12 @@
         <v>1980</v>
       </c>
       <c r="F36">
-        <v>438.17</v>
+        <v>4.3817000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>10630</v>
@@ -1316,12 +1316,12 @@
         <v>1980</v>
       </c>
       <c r="F37">
-        <v>541.71</v>
+        <v>5.4171000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>2916</v>
@@ -1336,12 +1336,12 @@
         <v>1980</v>
       </c>
       <c r="F38">
-        <v>503.68</v>
+        <v>5.0368000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>2684</v>
@@ -1356,12 +1356,12 @@
         <v>1980</v>
       </c>
       <c r="F39">
-        <v>436.77</v>
+        <v>4.3677000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>11665</v>
@@ -1376,12 +1376,12 @@
         <v>1980</v>
       </c>
       <c r="F40">
-        <v>555.79999999999995</v>
+        <v>5.5579999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>911</v>
@@ -1396,12 +1396,12 @@
         <v>1980</v>
       </c>
       <c r="F41">
-        <v>488.19</v>
+        <v>4.8818999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>3174</v>
@@ -1416,12 +1416,12 @@
         <v>1980</v>
       </c>
       <c r="F42">
-        <v>556.12</v>
+        <v>5.5612000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>677</v>
@@ -1436,12 +1436,12 @@
         <v>1980</v>
       </c>
       <c r="F43">
-        <v>461.57</v>
+        <v>4.6157000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>4519</v>
@@ -1456,12 +1456,12 @@
         <v>1980</v>
       </c>
       <c r="F44">
-        <v>531.74</v>
+        <v>5.3174000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>14326</v>
@@ -1476,12 +1476,12 @@
         <v>1980</v>
       </c>
       <c r="F45">
-        <v>490.07</v>
+        <v>4.9006999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>1488</v>
@@ -1496,12 +1496,12 @@
         <v>1980</v>
       </c>
       <c r="F46">
-        <v>400.05</v>
+        <v>4.0004999999999997</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>520</v>
@@ -1516,12 +1516,12 @@
         <v>1980</v>
       </c>
       <c r="F47">
-        <v>472.06</v>
+        <v>4.7206000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>5204</v>
@@ -1536,12 +1536,12 @@
         <v>1980</v>
       </c>
       <c r="F48">
-        <v>518.27</v>
+        <v>5.1826999999999996</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>4223</v>
@@ -1556,12 +1556,12 @@
         <v>1980</v>
       </c>
       <c r="F49">
-        <v>427.49</v>
+        <v>4.2748999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>1952</v>
@@ -1576,12 +1576,12 @@
         <v>1980</v>
       </c>
       <c r="F50">
-        <v>561.27</v>
+        <v>5.6127000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>4724</v>
@@ -1596,12 +1596,12 @@
         <v>1980</v>
       </c>
       <c r="F51">
-        <v>473.05</v>
+        <v>4.7305000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>468</v>
@@ -1616,12 +1616,12 @@
         <v>1980</v>
       </c>
       <c r="F52">
-        <v>421.43</v>
+        <v>4.2142999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B53">
         <v>3981</v>
@@ -1636,12 +1636,12 @@
         <v>1985</v>
       </c>
       <c r="F53">
-        <v>485.17</v>
+        <v>4.8517000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B54">
         <v>510</v>
@@ -1656,12 +1656,12 @@
         <v>1985</v>
       </c>
       <c r="F54">
-        <v>383.95</v>
+        <v>3.8394999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B55">
         <v>3227</v>
@@ -1676,12 +1676,12 @@
         <v>1985</v>
       </c>
       <c r="F55">
-        <v>373.15</v>
+        <v>3.7314999999999996</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B56">
         <v>2364</v>
@@ -1696,12 +1696,12 @@
         <v>1985</v>
       </c>
       <c r="F56">
-        <v>489.37</v>
+        <v>4.8936999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B57">
         <v>26456</v>
@@ -1716,12 +1716,12 @@
         <v>1985</v>
       </c>
       <c r="F57">
-        <v>443.79</v>
+        <v>4.4379</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B58">
         <v>3176</v>
@@ -1736,12 +1736,12 @@
         <v>1985</v>
       </c>
       <c r="F58">
-        <v>371.32</v>
+        <v>3.7132000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B59">
         <v>3111</v>
@@ -1756,12 +1756,12 @@
         <v>1985</v>
       </c>
       <c r="F59">
-        <v>430.94</v>
+        <v>4.3094000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B60">
         <v>624</v>
@@ -1776,12 +1776,12 @@
         <v>1985</v>
       </c>
       <c r="F60">
-        <v>494.29</v>
+        <v>4.9428999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>603</v>
@@ -1796,12 +1796,12 @@
         <v>1985</v>
       </c>
       <c r="F61">
-        <v>487.71</v>
+        <v>4.8770999999999995</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B62">
         <v>11537</v>
@@ -1816,12 +1816,12 @@
         <v>1985</v>
       </c>
       <c r="F62">
-        <v>418.11</v>
+        <v>4.1810999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B63">
         <v>5867</v>
@@ -1836,12 +1836,12 @@
         <v>1985</v>
       </c>
       <c r="F63">
-        <v>498.8</v>
+        <v>4.9880000000000004</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B64">
         <v>1018</v>
@@ -1856,12 +1856,12 @@
         <v>1985</v>
       </c>
       <c r="F64">
-        <v>336.95</v>
+        <v>3.3694999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B65">
         <v>996</v>
@@ -1876,12 +1876,12 @@
         <v>1985</v>
       </c>
       <c r="F65">
-        <v>390.66</v>
+        <v>3.9066000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B66">
         <v>11743</v>
@@ -1896,12 +1896,12 @@
         <v>1985</v>
       </c>
       <c r="F66">
-        <v>497.82</v>
+        <v>4.9782000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B67">
         <v>5302</v>
@@ -1916,12 +1916,12 @@
         <v>1985</v>
       </c>
       <c r="F67">
-        <v>485.25</v>
+        <v>4.8525</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B68">
         <v>2815</v>
@@ -1936,12 +1936,12 @@
         <v>1985</v>
       </c>
       <c r="F68">
-        <v>427.64</v>
+        <v>4.2763999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B69">
         <v>2395</v>
@@ -1956,12 +1956,12 @@
         <v>1985</v>
       </c>
       <c r="F69">
-        <v>420.03</v>
+        <v>4.2002999999999995</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B70">
         <v>3650</v>
@@ -1976,12 +1976,12 @@
         <v>1985</v>
       </c>
       <c r="F70">
-        <v>499.51</v>
+        <v>4.9950999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B71">
         <v>4322</v>
@@ -1996,12 +1996,12 @@
         <v>1985</v>
       </c>
       <c r="F71">
-        <v>518.12</v>
+        <v>5.1812000000000005</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B72">
         <v>1129</v>
@@ -2016,12 +2016,12 @@
         <v>1985</v>
       </c>
       <c r="F72">
-        <v>440.06</v>
+        <v>4.4005999999999998</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B73">
         <v>4209</v>
@@ -2036,12 +2036,12 @@
         <v>1985</v>
       </c>
       <c r="F73">
-        <v>467.33</v>
+        <v>4.6733000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B74">
         <v>5899</v>
@@ -2056,12 +2056,12 @@
         <v>1985</v>
       </c>
       <c r="F74">
-        <v>434.12</v>
+        <v>4.3411999999999997</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B75">
         <v>9051</v>
@@ -2076,12 +2076,12 @@
         <v>1985</v>
       </c>
       <c r="F75">
-        <v>517.67999999999995</v>
+        <v>5.1767999999999992</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B76">
         <v>4146</v>
@@ -2096,12 +2096,12 @@
         <v>1985</v>
       </c>
       <c r="F76">
-        <v>389.97</v>
+        <v>3.8997000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B77">
         <v>2564</v>
@@ -2116,12 +2116,12 @@
         <v>1985</v>
       </c>
       <c r="F77">
-        <v>539.9</v>
+        <v>5.399</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B78">
         <v>5011</v>
@@ -2136,12 +2136,12 @@
         <v>1985</v>
       </c>
       <c r="F78">
-        <v>475.16</v>
+        <v>4.7515999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B79">
         <v>835</v>
@@ -2156,12 +2156,12 @@
         <v>1985</v>
       </c>
       <c r="F79">
-        <v>389.6</v>
+        <v>3.8960000000000004</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B80">
         <v>1589</v>
@@ -2176,12 +2176,12 @@
         <v>1985</v>
       </c>
       <c r="F80">
-        <v>430.45</v>
+        <v>4.3045</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B81">
         <v>968</v>
@@ -2196,12 +2196,12 @@
         <v>1985</v>
       </c>
       <c r="F81">
-        <v>473.02</v>
+        <v>4.7302</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B82">
         <v>988</v>
@@ -2216,12 +2216,12 @@
         <v>1985</v>
       </c>
       <c r="F82">
-        <v>431.47</v>
+        <v>4.3147000000000002</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B83">
         <v>7608</v>
@@ -2236,12 +2236,12 @@
         <v>1985</v>
       </c>
       <c r="F83">
-        <v>498.53</v>
+        <v>4.9852999999999996</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B84">
         <v>1447</v>
@@ -2256,12 +2256,12 @@
         <v>1985</v>
       </c>
       <c r="F84">
-        <v>354.87</v>
+        <v>3.5487000000000002</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B85">
         <v>17668</v>
@@ -2276,12 +2276,12 @@
         <v>1985</v>
       </c>
       <c r="F85">
-        <v>529.70000000000005</v>
+        <v>5.2970000000000006</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B86">
         <v>6073</v>
@@ -2296,12 +2296,12 @@
         <v>1985</v>
       </c>
       <c r="F86">
-        <v>483.39</v>
+        <v>4.8338999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B87">
         <v>681</v>
@@ -2316,12 +2316,12 @@
         <v>1985</v>
       </c>
       <c r="F87">
-        <v>403.29</v>
+        <v>4.0329000000000006</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B88">
         <v>10629</v>
@@ -2336,12 +2336,12 @@
         <v>1985</v>
       </c>
       <c r="F88">
-        <v>496.56</v>
+        <v>4.9656000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B89">
         <v>3280</v>
@@ -2356,12 +2356,12 @@
         <v>1985</v>
       </c>
       <c r="F89">
-        <v>479.19</v>
+        <v>4.7919</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B90">
         <v>2671</v>
@@ -2376,12 +2376,12 @@
         <v>1985</v>
       </c>
       <c r="F90">
-        <v>410.87</v>
+        <v>4.1086999999999998</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B91">
         <v>11554</v>
@@ -2396,12 +2396,12 @@
         <v>1985</v>
       </c>
       <c r="F91">
-        <v>502.37</v>
+        <v>5.0236999999999998</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B92">
         <v>933</v>
@@ -2416,12 +2416,12 @@
         <v>1985</v>
       </c>
       <c r="F92">
-        <v>452.34</v>
+        <v>4.5233999999999996</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B93">
         <v>3219</v>
@@ -2436,12 +2436,12 @@
         <v>1985</v>
       </c>
       <c r="F93">
-        <v>507.44</v>
+        <v>5.0743999999999998</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B94">
         <v>689</v>
@@ -2456,12 +2456,12 @@
         <v>1985</v>
       </c>
       <c r="F94">
-        <v>426.51</v>
+        <v>4.2651000000000003</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B95">
         <v>4619</v>
@@ -2476,12 +2476,12 @@
         <v>1985</v>
       </c>
       <c r="F95">
-        <v>498.17</v>
+        <v>4.9817</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B96">
         <v>16231</v>
@@ -2496,12 +2496,12 @@
         <v>1985</v>
       </c>
       <c r="F96">
-        <v>455.26</v>
+        <v>4.5526</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B97">
         <v>1652</v>
@@ -2516,12 +2516,12 @@
         <v>1985</v>
       </c>
       <c r="F97">
-        <v>373.51</v>
+        <v>3.7351000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B98">
         <v>524</v>
@@ -2536,12 +2536,12 @@
         <v>1985</v>
       </c>
       <c r="F98">
-        <v>432.4</v>
+        <v>4.3239999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B99">
         <v>5567</v>
@@ -2556,12 +2556,12 @@
         <v>1985</v>
       </c>
       <c r="F99">
-        <v>470.87</v>
+        <v>4.7087000000000003</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B100">
         <v>4371</v>
@@ -2576,12 +2576,12 @@
         <v>1985</v>
       </c>
       <c r="F100">
-        <v>395.97</v>
+        <v>3.9597000000000002</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B101">
         <v>1894</v>
@@ -2596,12 +2596,12 @@
         <v>1985</v>
       </c>
       <c r="F101">
-        <v>520.58000000000004</v>
+        <v>5.2058</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B102">
         <v>4693</v>
@@ -2616,12 +2616,12 @@
         <v>1985</v>
       </c>
       <c r="F102">
-        <v>434.84</v>
+        <v>4.3483999999999998</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B103">
         <v>506</v>
@@ -2636,12 +2636,12 @@
         <v>1985</v>
       </c>
       <c r="F103">
-        <v>391.37</v>
+        <v>3.9137</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B104">
         <v>4063</v>
@@ -2656,12 +2656,12 @@
         <v>1990</v>
       </c>
       <c r="F104">
-        <v>436.61</v>
+        <v>4.3661000000000003</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B105">
         <v>499</v>
@@ -2676,12 +2676,12 @@
         <v>1990</v>
       </c>
       <c r="F105">
-        <v>336.37</v>
+        <v>3.3637000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B106">
         <v>3521</v>
@@ -2696,12 +2696,12 @@
         <v>1990</v>
       </c>
       <c r="F106">
-        <v>338.85</v>
+        <v>3.3885000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B107">
         <v>2411</v>
@@ -2716,12 +2716,12 @@
         <v>1990</v>
       </c>
       <c r="F107">
-        <v>444.04</v>
+        <v>4.4404000000000003</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B108">
         <v>29765</v>
@@ -2736,12 +2736,12 @@
         <v>1990</v>
       </c>
       <c r="F108">
-        <v>397.68</v>
+        <v>3.9767999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B109">
         <v>3367</v>
@@ -2756,12 +2756,12 @@
         <v>1990</v>
       </c>
       <c r="F109">
-        <v>331.71</v>
+        <v>3.3170999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B110">
         <v>3265</v>
@@ -2776,12 +2776,12 @@
         <v>1990</v>
       </c>
       <c r="F110">
-        <v>364.74</v>
+        <v>3.6474000000000002</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B111">
         <v>690</v>
@@ -2796,12 +2796,12 @@
         <v>1990</v>
       </c>
       <c r="F111">
-        <v>421.76</v>
+        <v>4.2176</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B112">
         <v>570</v>
@@ -2816,12 +2816,12 @@
         <v>1990</v>
       </c>
       <c r="F112">
-        <v>449.72</v>
+        <v>4.4972000000000003</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B113">
         <v>13179</v>
@@ -2836,12 +2836,12 @@
         <v>1990</v>
       </c>
       <c r="F113">
-        <v>366.53</v>
+        <v>3.6652999999999998</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B114">
         <v>6349</v>
@@ -2856,12 +2856,12 @@
         <v>1990</v>
       </c>
       <c r="F114">
-        <v>436.8</v>
+        <v>4.3680000000000003</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B115">
         <v>1100</v>
@@ -2876,12 +2876,12 @@
         <v>1990</v>
       </c>
       <c r="F115">
-        <v>306.52999999999997</v>
+        <v>3.0652999999999997</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B116">
         <v>1048</v>
@@ -2896,12 +2896,12 @@
         <v>1990</v>
       </c>
       <c r="F116">
-        <v>344.79</v>
+        <v>3.4479000000000002</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B117">
         <v>11696</v>
@@ -2916,12 +2916,12 @@
         <v>1990</v>
       </c>
       <c r="F117">
-        <v>434.51</v>
+        <v>4.3450999999999995</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B118">
         <v>5480</v>
@@ -2936,12 +2936,12 @@
         <v>1990</v>
       </c>
       <c r="F118">
-        <v>430.38</v>
+        <v>4.3037999999999998</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B119">
         <v>2784</v>
@@ -2956,12 +2956,12 @@
         <v>1990</v>
       </c>
       <c r="F119">
-        <v>379.21</v>
+        <v>3.7920999999999996</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B120">
         <v>2510</v>
@@ -2976,12 +2976,12 @@
         <v>1990</v>
       </c>
       <c r="F120">
-        <v>375.83</v>
+        <v>3.7582999999999998</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B121">
         <v>3620</v>
@@ -2996,12 +2996,12 @@
         <v>1990</v>
       </c>
       <c r="F121">
-        <v>443.46</v>
+        <v>4.4345999999999997</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B122">
         <v>4034</v>
@@ -3016,12 +3016,12 @@
         <v>1990</v>
       </c>
       <c r="F122">
-        <v>463.34</v>
+        <v>4.6334</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B123">
         <v>1231</v>
@@ -3036,12 +3036,12 @@
         <v>1990</v>
       </c>
       <c r="F123">
-        <v>373.96</v>
+        <v>3.7395999999999998</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B124">
         <v>4727</v>
@@ -3056,12 +3056,12 @@
         <v>1990</v>
       </c>
       <c r="F124">
-        <v>408.24</v>
+        <v>4.0823999999999998</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B125">
         <v>5832</v>
@@ -3076,12 +3076,12 @@
         <v>1990</v>
       </c>
       <c r="F125">
-        <v>368.11</v>
+        <v>3.6811000000000003</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B126">
         <v>9187</v>
@@ -3096,12 +3096,12 @@
         <v>1990</v>
       </c>
       <c r="F126">
-        <v>448.65</v>
+        <v>4.4864999999999995</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B127">
         <v>4366</v>
@@ -3116,12 +3116,12 @@
         <v>1990</v>
       </c>
       <c r="F127">
-        <v>333.95</v>
+        <v>3.3394999999999997</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B128">
         <v>2663</v>
@@ -3136,12 +3136,12 @@
         <v>1990</v>
       </c>
       <c r="F128">
-        <v>486.97</v>
+        <v>4.8696999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B129">
         <v>5238</v>
@@ -3156,12 +3156,12 @@
         <v>1990</v>
       </c>
       <c r="F129">
-        <v>424.76</v>
+        <v>4.2476000000000003</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B130">
         <v>820</v>
@@ -3176,12 +3176,12 @@
         <v>1990</v>
       </c>
       <c r="F130">
-        <v>340.02</v>
+        <v>3.4001999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B131">
         <v>1617</v>
@@ -3196,12 +3196,12 @@
         <v>1990</v>
       </c>
       <c r="F131">
-        <v>374.16</v>
+        <v>3.7416</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B132">
         <v>1218</v>
@@ -3216,12 +3216,12 @@
         <v>1990</v>
       </c>
       <c r="F132">
-        <v>410.96</v>
+        <v>4.1095999999999995</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B133">
         <v>1085</v>
@@ -3236,12 +3236,12 @@
         <v>1990</v>
       </c>
       <c r="F133">
-        <v>370.3</v>
+        <v>3.7030000000000003</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B134">
         <v>7741</v>
@@ -3256,12 +3256,12 @@
         <v>1990</v>
       </c>
       <c r="F134">
-        <v>423.84</v>
+        <v>4.2383999999999995</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B135">
         <v>1524</v>
@@ -3276,12 +3276,12 @@
         <v>1990</v>
       </c>
       <c r="F135">
-        <v>315.10000000000002</v>
+        <v>3.1510000000000002</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B136">
         <v>18038</v>
@@ -3296,12 +3296,12 @@
         <v>1990</v>
       </c>
       <c r="F136">
-        <v>465.92</v>
+        <v>4.6592000000000002</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B137">
         <v>6377</v>
@@ -3316,12 +3316,12 @@
         <v>1990</v>
       </c>
       <c r="F137">
-        <v>422.8</v>
+        <v>4.2279999999999998</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B138">
         <v>635</v>
@@ -3336,12 +3336,12 @@
         <v>1990</v>
       </c>
       <c r="F138">
-        <v>356.52</v>
+        <v>3.5651999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B139">
         <v>10890</v>
@@ -3356,12 +3356,12 @@
         <v>1990</v>
       </c>
       <c r="F139">
-        <v>432.05</v>
+        <v>4.3205</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B140">
         <v>3091</v>
@@ -3376,12 +3376,12 @@
         <v>1990</v>
       </c>
       <c r="F140">
-        <v>444.64</v>
+        <v>4.4463999999999997</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B141">
         <v>2891</v>
@@ -3396,12 +3396,12 @@
         <v>1990</v>
       </c>
       <c r="F141">
-        <v>352.71</v>
+        <v>3.5270999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B142">
         <v>12097</v>
@@ -3416,12 +3416,12 @@
         <v>1990</v>
       </c>
       <c r="F142">
-        <v>431.14</v>
+        <v>4.3113999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B143">
         <v>946</v>
@@ -3436,12 +3436,12 @@
         <v>1990</v>
       </c>
       <c r="F143">
-        <v>392.82</v>
+        <v>3.9281999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B144">
         <v>3391</v>
@@ -3456,12 +3456,12 @@
         <v>1990</v>
       </c>
       <c r="F144">
-        <v>442.44</v>
+        <v>4.4244000000000003</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B145">
         <v>696</v>
@@ -3476,12 +3476,12 @@
         <v>1990</v>
       </c>
       <c r="F145">
-        <v>374.3</v>
+        <v>3.7430000000000003</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B146">
         <v>4927</v>
@@ -3496,12 +3496,12 @@
         <v>1990</v>
       </c>
       <c r="F146">
-        <v>448.87</v>
+        <v>4.4886999999999997</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B147">
         <v>16873</v>
@@ -3516,12 +3516,12 @@
         <v>1990</v>
       </c>
       <c r="F147">
-        <v>407.55</v>
+        <v>4.0754999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B148">
         <v>1739</v>
@@ -3536,12 +3536,12 @@
         <v>1990</v>
       </c>
       <c r="F148">
-        <v>323.81</v>
+        <v>3.2381000000000002</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B149">
         <v>564</v>
@@ -3556,12 +3556,12 @@
         <v>1990</v>
       </c>
       <c r="F149">
-        <v>369.27</v>
+        <v>3.6926999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B150">
         <v>6322</v>
@@ -3576,12 +3576,12 @@
         <v>1990</v>
       </c>
       <c r="F150">
-        <v>406.8</v>
+        <v>4.0680000000000005</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B151">
         <v>4880</v>
@@ -3596,12 +3596,12 @@
         <v>1990</v>
       </c>
       <c r="F151">
-        <v>344.39</v>
+        <v>3.4438999999999997</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B152">
         <v>1810</v>
@@ -3616,12 +3616,12 @@
         <v>1990</v>
       </c>
       <c r="F152">
-        <v>463.32</v>
+        <v>4.6331999999999995</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B153">
         <v>4815</v>
@@ -3636,12 +3636,12 @@
         <v>1990</v>
       </c>
       <c r="F153">
-        <v>380.51</v>
+        <v>3.8050999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B154">
         <v>463</v>
@@ -3656,12 +3656,12 @@
         <v>1990</v>
       </c>
       <c r="F154">
-        <v>346.84</v>
+        <v>3.4683999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B155">
         <v>4396</v>
@@ -3676,12 +3676,12 @@
         <v>1995</v>
       </c>
       <c r="F155">
-        <v>414.45</v>
+        <v>4.1444999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B156">
         <v>630</v>
@@ -3696,12 +3696,12 @@
         <v>1995</v>
       </c>
       <c r="F156">
-        <v>315.33</v>
+        <v>3.1532999999999998</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B157">
         <v>4337</v>
@@ -3716,12 +3716,12 @@
         <v>1995</v>
       </c>
       <c r="F157">
-        <v>312.23</v>
+        <v>3.1223000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B158">
         <v>2532</v>
@@ -3736,12 +3736,12 @@
         <v>1995</v>
       </c>
       <c r="F158">
-        <v>431.32</v>
+        <v>4.3132000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B159">
         <v>32055</v>
@@ -3756,12 +3756,12 @@
         <v>1995</v>
       </c>
       <c r="F159">
-        <v>361</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B160">
         <v>3793</v>
@@ -3776,12 +3776,12 @@
         <v>1995</v>
       </c>
       <c r="F160">
-        <v>306.55</v>
+        <v>3.0655000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B161">
         <v>3276</v>
@@ -3796,12 +3796,12 @@
         <v>1995</v>
       </c>
       <c r="F161">
-        <v>344.06</v>
+        <v>3.4405999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B162">
         <v>713</v>
@@ -3816,12 +3816,12 @@
         <v>1995</v>
       </c>
       <c r="F162">
-        <v>385.48</v>
+        <v>3.8548</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B163">
         <v>551</v>
@@ -3836,12 +3836,12 @@
         <v>1995</v>
       </c>
       <c r="F163">
-        <v>424.91</v>
+        <v>4.2491000000000003</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B164">
         <v>14306</v>
@@ -3856,12 +3856,12 @@
         <v>1995</v>
       </c>
       <c r="F164">
-        <v>346.92</v>
+        <v>3.4692000000000003</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B165">
         <v>7262</v>
@@ -3876,12 +3876,12 @@
         <v>1995</v>
       </c>
       <c r="F165">
-        <v>411.43</v>
+        <v>4.1143000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B166">
         <v>1187</v>
@@ -3896,12 +3896,12 @@
         <v>1995</v>
       </c>
       <c r="F166">
-        <v>292.08</v>
+        <v>2.9207999999999998</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B167">
         <v>1154</v>
@@ -3916,12 +3916,12 @@
         <v>1995</v>
       </c>
       <c r="F167">
-        <v>325.57</v>
+        <v>3.2557</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B168">
         <v>11761</v>
@@ -3936,12 +3936,12 @@
         <v>1995</v>
       </c>
       <c r="F168">
-        <v>413.35</v>
+        <v>4.1335000000000006</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B169">
         <v>5673</v>
@@ -3956,12 +3956,12 @@
         <v>1995</v>
       </c>
       <c r="F169">
-        <v>406.85</v>
+        <v>4.0685000000000002</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B170">
         <v>2894</v>
@@ -3976,12 +3976,12 @@
         <v>1995</v>
       </c>
       <c r="F170">
-        <v>359.96</v>
+        <v>3.5995999999999997</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B171">
         <v>2535</v>
@@ -3996,12 +3996,12 @@
         <v>1995</v>
       </c>
       <c r="F171">
-        <v>360.23</v>
+        <v>3.6023000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B172">
         <v>3876</v>
@@ -4016,12 +4016,12 @@
         <v>1995</v>
       </c>
       <c r="F172">
-        <v>420.5</v>
+        <v>4.2050000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B173">
         <v>4306</v>
@@ -4036,12 +4036,12 @@
         <v>1995</v>
       </c>
       <c r="F173">
-        <v>437.8</v>
+        <v>4.3780000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B174">
         <v>1225</v>
@@ -4056,12 +4056,12 @@
         <v>1995</v>
       </c>
       <c r="F174">
-        <v>346.28</v>
+        <v>3.4627999999999997</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B175">
         <v>5133</v>
@@ -4076,12 +4076,12 @@
         <v>1995</v>
       </c>
       <c r="F175">
-        <v>378.08</v>
+        <v>3.7807999999999997</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B176">
         <v>6065</v>
@@ -4096,12 +4096,12 @@
         <v>1995</v>
       </c>
       <c r="F176">
-        <v>335.33</v>
+        <v>3.3532999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B177">
         <v>9637</v>
@@ -4116,12 +4116,12 @@
         <v>1995</v>
       </c>
       <c r="F177">
-        <v>419.96</v>
+        <v>4.1996000000000002</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B178">
         <v>4628</v>
@@ -4136,12 +4136,12 @@
         <v>1995</v>
       </c>
       <c r="F178">
-        <v>307.42</v>
+        <v>3.0742000000000003</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B179">
         <v>2685</v>
@@ -4156,12 +4156,12 @@
         <v>1995</v>
       </c>
       <c r="F179">
-        <v>475.26</v>
+        <v>4.7526000000000002</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B180">
         <v>5140</v>
@@ -4176,12 +4176,12 @@
         <v>1995</v>
       </c>
       <c r="F180">
-        <v>411.8</v>
+        <v>4.1180000000000003</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B181">
         <v>870</v>
@@ -4196,12 +4196,12 @@
         <v>1995</v>
       </c>
       <c r="F181">
-        <v>320.97000000000003</v>
+        <v>3.2097000000000002</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B182">
         <v>1648</v>
@@ -4216,12 +4216,12 @@
         <v>1995</v>
       </c>
       <c r="F182">
-        <v>353.33</v>
+        <v>3.5332999999999997</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B183">
         <v>1558</v>
@@ -4236,12 +4236,12 @@
         <v>1995</v>
       </c>
       <c r="F183">
-        <v>390.26</v>
+        <v>3.9026000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B184">
         <v>1139</v>
@@ -4256,12 +4256,12 @@
         <v>1995</v>
       </c>
       <c r="F184">
-        <v>345.78</v>
+        <v>3.4577999999999998</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B185">
         <v>7879</v>
@@ -4276,12 +4276,12 @@
         <v>1995</v>
       </c>
       <c r="F185">
-        <v>389.8</v>
+        <v>3.8980000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B186">
         <v>1806</v>
@@ -4296,12 +4296,12 @@
         <v>1995</v>
       </c>
       <c r="F186">
-        <v>304.54000000000002</v>
+        <v>3.0454000000000003</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B187">
         <v>18258</v>
@@ -4316,12 +4316,12 @@
         <v>1995</v>
       </c>
       <c r="F187">
-        <v>434.74</v>
+        <v>4.3474000000000004</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B188">
         <v>6935</v>
@@ -4336,12 +4336,12 @@
         <v>1995</v>
       </c>
       <c r="F188">
-        <v>394.03</v>
+        <v>3.9402999999999997</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B189">
         <v>635</v>
@@ -4356,12 +4356,12 @@
         <v>1995</v>
       </c>
       <c r="F189">
-        <v>337.63</v>
+        <v>3.3763000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B190">
         <v>11211</v>
@@ -4376,12 +4376,12 @@
         <v>1995</v>
       </c>
       <c r="F190">
-        <v>408.36</v>
+        <v>4.0836000000000006</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B191">
         <v>3204</v>
@@ -4396,12 +4396,12 @@
         <v>1995</v>
       </c>
       <c r="F191">
-        <v>436.29</v>
+        <v>4.3628999999999998</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B192">
         <v>3208</v>
@@ -4416,12 +4416,12 @@
         <v>1995</v>
       </c>
       <c r="F192">
-        <v>328.13</v>
+        <v>3.2812999999999999</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B193">
         <v>12031</v>
@@ -4436,12 +4436,12 @@
         <v>1995</v>
       </c>
       <c r="F193">
-        <v>402.81</v>
+        <v>4.0281000000000002</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B194">
         <v>962</v>
@@ -4456,12 +4456,12 @@
         <v>1995</v>
       </c>
       <c r="F194">
-        <v>360.42</v>
+        <v>3.6042000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B195">
         <v>3741</v>
@@ -4476,12 +4476,12 @@
         <v>1995</v>
       </c>
       <c r="F195">
-        <v>415.63</v>
+        <v>4.1562999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B196">
         <v>713</v>
@@ -4496,12 +4496,12 @@
         <v>1995</v>
       </c>
       <c r="F196">
-        <v>349.91</v>
+        <v>3.4991000000000003</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B197">
         <v>5462</v>
@@ -4516,12 +4516,12 @@
         <v>1995</v>
       </c>
       <c r="F197">
-        <v>431.4</v>
+        <v>4.3140000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B198">
         <v>18761</v>
@@ -4536,12 +4536,12 @@
         <v>1995</v>
       </c>
       <c r="F198">
-        <v>383.86</v>
+        <v>3.8386</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B199">
         <v>1999</v>
@@ -4556,12 +4556,12 @@
         <v>1995</v>
       </c>
       <c r="F199">
-        <v>305.5</v>
+        <v>3.0550000000000002</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B200">
         <v>593</v>
@@ -4576,12 +4576,12 @@
         <v>1995</v>
       </c>
       <c r="F200">
-        <v>345.81</v>
+        <v>3.4581</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B201">
         <v>6371</v>
@@ -4596,12 +4596,12 @@
         <v>1995</v>
       </c>
       <c r="F201">
-        <v>379.11</v>
+        <v>3.7911000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B202">
         <v>5424</v>
@@ -4616,12 +4616,12 @@
         <v>1995</v>
       </c>
       <c r="F202">
-        <v>319.82</v>
+        <v>3.1981999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B203">
         <v>1793</v>
@@ -4636,12 +4636,12 @@
         <v>1995</v>
       </c>
       <c r="F203">
-        <v>437.03</v>
+        <v>4.3702999999999994</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B204">
         <v>5300</v>
@@ -4656,12 +4656,12 @@
         <v>1995</v>
       </c>
       <c r="F204">
-        <v>354.98</v>
+        <v>3.5498000000000003</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B205">
         <v>482</v>
@@ -4676,12 +4676,12 @@
         <v>1995</v>
       </c>
       <c r="F205">
-        <v>330.71</v>
+        <v>3.3070999999999997</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B206">
         <v>4376</v>
@@ -4696,12 +4696,12 @@
         <v>2000</v>
       </c>
       <c r="F206">
-        <v>397.4</v>
+        <v>3.9739999999999998</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B207">
         <v>620</v>
@@ -4716,12 +4716,12 @@
         <v>2000</v>
       </c>
       <c r="F207">
-        <v>287.88</v>
+        <v>2.8788</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B208">
         <v>5181</v>
@@ -4736,12 +4736,12 @@
         <v>2000</v>
       </c>
       <c r="F208">
-        <v>287.18</v>
+        <v>2.8717999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B209">
         <v>2650</v>
@@ -4756,12 +4756,12 @@
         <v>2000</v>
       </c>
       <c r="F209">
-        <v>408.79</v>
+        <v>4.0879000000000003</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B210">
         <v>33889</v>
@@ -4776,12 +4776,12 @@
         <v>2000</v>
       </c>
       <c r="F210">
-        <v>328.56</v>
+        <v>3.2856000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B211">
         <v>4334</v>
@@ -4796,12 +4796,12 @@
         <v>2000</v>
       </c>
       <c r="F211">
-        <v>280.94</v>
+        <v>2.8094000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B212">
         <v>3365</v>
@@ -4816,12 +4816,12 @@
         <v>2000</v>
       </c>
       <c r="F212">
-        <v>310.31</v>
+        <v>3.1031</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B213">
         <v>777</v>
@@ -4836,12 +4836,12 @@
         <v>2000</v>
       </c>
       <c r="F213">
-        <v>351.07</v>
+        <v>3.5106999999999999</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B214">
         <v>552</v>
@@ -4856,12 +4856,12 @@
         <v>2000</v>
       </c>
       <c r="F214">
-        <v>398.56</v>
+        <v>3.9855999999999998</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B215">
         <v>15991</v>
@@ -4876,12 +4876,12 @@
         <v>2000</v>
       </c>
       <c r="F215">
-        <v>317.3</v>
+        <v>3.173</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B216">
         <v>8112</v>
@@ -4896,12 +4896,12 @@
         <v>2000</v>
       </c>
       <c r="F216">
-        <v>380.53</v>
+        <v>3.8052999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B217">
         <v>1195</v>
@@ -4916,12 +4916,12 @@
         <v>2000</v>
       </c>
       <c r="F217">
-        <v>263.7</v>
+        <v>2.637</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B218">
         <v>1289</v>
@@ -4936,12 +4936,12 @@
         <v>2000</v>
       </c>
       <c r="F218">
-        <v>304.66000000000003</v>
+        <v>3.0466000000000002</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B219">
         <v>12269</v>
@@ -4956,12 +4956,12 @@
         <v>2000</v>
       </c>
       <c r="F219">
-        <v>362.49</v>
+        <v>3.6249000000000002</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B220">
         <v>6007</v>
@@ -4976,12 +4976,12 @@
         <v>2000</v>
       </c>
       <c r="F220">
-        <v>374.75</v>
+        <v>3.7475000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B221">
         <v>2858</v>
@@ -4996,12 +4996,12 @@
         <v>2000</v>
       </c>
       <c r="F221">
-        <v>330.56</v>
+        <v>3.3056000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B222">
         <v>2649</v>
@@ -5016,12 +5016,12 @@
         <v>2000</v>
       </c>
       <c r="F222">
-        <v>334.92</v>
+        <v>3.3492000000000002</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B223">
         <v>3995</v>
@@ -5036,12 +5036,12 @@
         <v>2000</v>
       </c>
       <c r="F223">
-        <v>397.22</v>
+        <v>3.9722000000000004</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B224">
         <v>4354</v>
@@ -5056,12 +5056,12 @@
         <v>2000</v>
       </c>
       <c r="F224">
-        <v>403.66</v>
+        <v>4.0366</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B225">
         <v>1267</v>
@@ -5076,12 +5076,12 @@
         <v>2000</v>
       </c>
       <c r="F225">
-        <v>312.39</v>
+        <v>3.1238999999999999</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B226">
         <v>5241</v>
@@ -5096,12 +5096,12 @@
         <v>2000</v>
       </c>
       <c r="F226">
-        <v>351.19</v>
+        <v>3.5118999999999998</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B227">
         <v>6284</v>
@@ -5116,12 +5116,12 @@
         <v>2000</v>
       </c>
       <c r="F227">
-        <v>300.13</v>
+        <v>3.0013000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B228">
         <v>9813</v>
@@ -5136,12 +5136,12 @@
         <v>2000</v>
       </c>
       <c r="F228">
-        <v>383.6</v>
+        <v>3.8360000000000003</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B229">
         <v>4890</v>
@@ -5156,12 +5156,12 @@
         <v>2000</v>
       </c>
       <c r="F229">
-        <v>270.91000000000003</v>
+        <v>2.7091000000000003</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B230">
         <v>2794</v>
@@ -5176,12 +5176,12 @@
         <v>2000</v>
       </c>
       <c r="F230">
-        <v>448.76</v>
+        <v>4.4875999999999996</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B231">
         <v>5517</v>
@@ -5196,12 +5196,12 @@
         <v>2000</v>
       </c>
       <c r="F231">
-        <v>382.85</v>
+        <v>3.8285</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B232">
         <v>888</v>
@@ -5216,12 +5216,12 @@
         <v>2000</v>
       </c>
       <c r="F232">
-        <v>296.82</v>
+        <v>2.9681999999999999</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B233">
         <v>1679</v>
@@ -5236,12 +5236,12 @@
         <v>2000</v>
       </c>
       <c r="F233">
-        <v>317.75</v>
+        <v>3.1775000000000002</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B234">
         <v>2045</v>
@@ -5256,12 +5256,12 @@
         <v>2000</v>
       </c>
       <c r="F234">
-        <v>349.13</v>
+        <v>3.4912999999999998</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B235">
         <v>1231</v>
@@ -5276,12 +5276,12 @@
         <v>2000</v>
       </c>
       <c r="F235">
-        <v>313</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B236">
         <v>8384</v>
@@ -5296,12 +5296,12 @@
         <v>2000</v>
       </c>
       <c r="F236">
-        <v>351.89</v>
+        <v>3.5188999999999999</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B237">
         <v>1790</v>
@@ -5316,12 +5316,12 @@
         <v>2000</v>
       </c>
       <c r="F237">
-        <v>277.44</v>
+        <v>2.7744</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B238">
         <v>18752</v>
@@ -5336,12 +5336,12 @@
         <v>2000</v>
       </c>
       <c r="F238">
-        <v>374.16</v>
+        <v>3.7416</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B239">
         <v>7983</v>
@@ -5356,12 +5356,12 @@
         <v>2000</v>
       </c>
       <c r="F239">
-        <v>362.66</v>
+        <v>3.6266000000000003</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B240">
         <v>622</v>
@@ -5376,12 +5376,12 @@
         <v>2000</v>
       </c>
       <c r="F240">
-        <v>312.52</v>
+        <v>3.1252</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B241">
         <v>11160</v>
@@ -5396,12 +5396,12 @@
         <v>2000</v>
       </c>
       <c r="F241">
-        <v>371.78</v>
+        <v>3.7177999999999995</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B242">
         <v>3378</v>
@@ -5416,12 +5416,12 @@
         <v>2000</v>
       </c>
       <c r="F242">
-        <v>420.37</v>
+        <v>4.2037000000000004</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B243">
         <v>3415</v>
@@ -5436,12 +5436,12 @@
         <v>2000</v>
       </c>
       <c r="F243">
-        <v>300.33</v>
+        <v>3.0032999999999999</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B244">
         <v>12044</v>
@@ -5456,12 +5456,12 @@
         <v>2000</v>
       </c>
       <c r="F244">
-        <v>364.2</v>
+        <v>3.6419999999999999</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B245">
         <v>1035</v>
@@ -5476,12 +5476,12 @@
         <v>2000</v>
       </c>
       <c r="F245">
-        <v>326.44</v>
+        <v>3.2644000000000002</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B246">
         <v>3964</v>
@@ -5496,12 +5496,12 @@
         <v>2000</v>
       </c>
       <c r="F246">
-        <v>376.18</v>
+        <v>3.7618</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B247">
         <v>737</v>
@@ -5516,12 +5516,12 @@
         <v>2000</v>
       </c>
       <c r="F247">
-        <v>320.52</v>
+        <v>3.2051999999999996</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B248">
         <v>5630</v>
@@ -5536,12 +5536,12 @@
         <v>2000</v>
       </c>
       <c r="F248">
-        <v>408.07</v>
+        <v>4.0807000000000002</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B249">
         <v>20695</v>
@@ -5556,12 +5556,12 @@
         <v>2000</v>
       </c>
       <c r="F249">
-        <v>358.87</v>
+        <v>3.5887000000000002</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B250">
         <v>2239</v>
@@ -5576,12 +5576,12 @@
         <v>2000</v>
       </c>
       <c r="F250">
-        <v>287.36</v>
+        <v>2.8736000000000002</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B251">
         <v>599</v>
@@ -5596,12 +5596,12 @@
         <v>2000</v>
       </c>
       <c r="F251">
-        <v>308.75</v>
+        <v>3.0874999999999999</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B252">
         <v>6977</v>
@@ -5616,12 +5616,12 @@
         <v>2000</v>
       </c>
       <c r="F252">
-        <v>343.14</v>
+        <v>3.4314</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B253">
         <v>5863</v>
@@ -5636,12 +5636,12 @@
         <v>2000</v>
       </c>
       <c r="F253">
-        <v>299.33999999999997</v>
+        <v>2.9933999999999998</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B254">
         <v>1773</v>
@@ -5656,12 +5656,12 @@
         <v>2000</v>
       </c>
       <c r="F254">
-        <v>404.91</v>
+        <v>4.0491000000000001</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B255">
         <v>5308</v>
@@ -5676,12 +5676,12 @@
         <v>2000</v>
       </c>
       <c r="F255">
-        <v>325.37</v>
+        <v>3.2537000000000003</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B256">
         <v>485</v>
@@ -5696,12 +5696,12 @@
         <v>2000</v>
       </c>
       <c r="F256">
-        <v>307.20999999999998</v>
+        <v>3.0720999999999998</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B257">
         <v>4501</v>
@@ -5716,12 +5716,12 @@
         <v>2005</v>
       </c>
       <c r="F257">
-        <v>352.09</v>
+        <v>3.5208999999999997</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B258">
         <v>657</v>
@@ -5736,12 +5736,12 @@
         <v>2005</v>
       </c>
       <c r="F258">
-        <v>244.18</v>
+        <v>2.4418000000000002</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B259">
         <v>6025</v>
@@ -5756,12 +5756,12 @@
         <v>2005</v>
       </c>
       <c r="F259">
-        <v>253.25</v>
+        <v>2.5325000000000002</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B260">
         <v>2756</v>
@@ -5776,12 +5776,12 @@
         <v>2005</v>
       </c>
       <c r="F260">
-        <v>361.81</v>
+        <v>3.6181000000000001</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B261">
         <v>35840</v>
@@ -5796,12 +5796,12 @@
         <v>2005</v>
       </c>
       <c r="F261">
-        <v>276.98</v>
+        <v>2.7698</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B262">
         <v>4629</v>
@@ -5816,12 +5816,12 @@
         <v>2005</v>
       </c>
       <c r="F262">
-        <v>242.88</v>
+        <v>2.4287999999999998</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B263">
         <v>3483</v>
@@ -5836,12 +5836,12 @@
         <v>2005</v>
       </c>
       <c r="F263">
-        <v>255.33</v>
+        <v>2.5533000000000001</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B264">
         <v>842</v>
@@ -5856,12 +5856,12 @@
         <v>2005</v>
       </c>
       <c r="F264">
-        <v>304.01</v>
+        <v>3.0400999999999998</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B265">
         <v>539</v>
@@ -5876,12 +5876,12 @@
         <v>2005</v>
       </c>
       <c r="F265">
-        <v>351.94</v>
+        <v>3.5194000000000001</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B266">
         <v>17845</v>
@@ -5896,12 +5896,12 @@
         <v>2005</v>
       </c>
       <c r="F266">
-        <v>271.51</v>
+        <v>2.7151000000000001</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B267">
         <v>9014</v>
@@ -5916,12 +5916,12 @@
         <v>2005</v>
       </c>
       <c r="F267">
-        <v>326.02999999999997</v>
+        <v>3.2602999999999995</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B268">
         <v>1274</v>
@@ -5936,12 +5936,12 @@
         <v>2005</v>
       </c>
       <c r="F268">
-        <v>226.97</v>
+        <v>2.2696999999999998</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B269">
         <v>1441</v>
@@ -5956,12 +5956,12 @@
         <v>2005</v>
       </c>
       <c r="F269">
-        <v>264.77999999999997</v>
+        <v>2.6477999999999997</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B270">
         <v>12571</v>
@@ -5976,12 +5976,12 @@
         <v>2005</v>
       </c>
       <c r="F270">
-        <v>307.86</v>
+        <v>3.0786000000000002</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B271">
         <v>6131</v>
@@ -5996,12 +5996,12 @@
         <v>2005</v>
       </c>
       <c r="F271">
-        <v>320.83</v>
+        <v>3.2082999999999999</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B272">
         <v>2902</v>
@@ -6016,12 +6016,12 @@
         <v>2005</v>
       </c>
       <c r="F272">
-        <v>285.92</v>
+        <v>2.8592</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B273">
         <v>2693</v>
@@ -6036,12 +6036,12 @@
         <v>2005</v>
       </c>
       <c r="F273">
-        <v>289.17</v>
+        <v>2.8917000000000002</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B274">
         <v>4049</v>
@@ -6056,12 +6056,12 @@
         <v>2005</v>
       </c>
       <c r="F274">
-        <v>342.75</v>
+        <v>3.4275000000000002</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B275">
         <v>4086</v>
@@ -6076,12 +6076,12 @@
         <v>2005</v>
       </c>
       <c r="F275">
-        <v>353.74</v>
+        <v>3.5373999999999999</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B276">
         <v>1314</v>
@@ -6096,12 +6096,12 @@
         <v>2005</v>
       </c>
       <c r="F276">
-        <v>263.23</v>
+        <v>2.6323000000000003</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B277">
         <v>5560</v>
@@ -6116,12 +6116,12 @@
         <v>2005</v>
       </c>
       <c r="F277">
-        <v>298.56</v>
+        <v>2.9855999999999998</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B278">
         <v>6318</v>
@@ -6136,12 +6136,12 @@
         <v>2005</v>
       </c>
       <c r="F278">
-        <v>252.18</v>
+        <v>2.5218000000000003</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B279">
         <v>9964</v>
@@ -6156,12 +6156,12 @@
         <v>2005</v>
       </c>
       <c r="F279">
-        <v>328.01</v>
+        <v>3.2801</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B280">
         <v>5113</v>
@@ -6176,12 +6176,12 @@
         <v>2005</v>
       </c>
       <c r="F280">
-        <v>227.5</v>
+        <v>2.2749999999999999</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B281">
         <v>2843</v>
@@ -6196,12 +6196,12 @@
         <v>2005</v>
       </c>
       <c r="F281">
-        <v>394.25</v>
+        <v>3.9424999999999999</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B282">
         <v>5697</v>
@@ -6216,12 +6216,12 @@
         <v>2005</v>
       </c>
       <c r="F282">
-        <v>329.02</v>
+        <v>3.2902</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B283">
         <v>926</v>
@@ -6236,12 +6236,12 @@
         <v>2005</v>
       </c>
       <c r="F283">
-        <v>259.27999999999997</v>
+        <v>2.5927999999999995</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B284">
         <v>1760</v>
@@ -6256,12 +6256,12 @@
         <v>2005</v>
       </c>
       <c r="F284">
-        <v>268.83</v>
+        <v>2.6882999999999999</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B285">
         <v>2447</v>
@@ -6276,12 +6276,12 @@
         <v>2005</v>
       </c>
       <c r="F285">
-        <v>314.43</v>
+        <v>3.1442999999999999</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B286">
         <v>1298</v>
@@ -6296,12 +6296,12 @@
         <v>2005</v>
       </c>
       <c r="F286">
-        <v>262.5</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B287">
         <v>8692</v>
@@ -6316,12 +6316,12 @@
         <v>2005</v>
       </c>
       <c r="F287">
-        <v>292.86</v>
+        <v>2.9286000000000003</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B288">
         <v>1938</v>
@@ -6336,12 +6336,12 @@
         <v>2005</v>
       </c>
       <c r="F288">
-        <v>247.26</v>
+        <v>2.4725999999999999</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B289">
         <v>18995</v>
@@ -6356,12 +6356,12 @@
         <v>2005</v>
       </c>
       <c r="F289">
-        <v>318.79000000000002</v>
+        <v>3.1879000000000004</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B290">
         <v>8538</v>
@@ -6376,12 +6376,12 @@
         <v>2005</v>
       </c>
       <c r="F290">
-        <v>303.73</v>
+        <v>3.0373000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B291">
         <v>625</v>
@@ -6396,12 +6396,12 @@
         <v>2005</v>
       </c>
       <c r="F291">
-        <v>269.58</v>
+        <v>2.6957999999999998</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B292">
         <v>11310</v>
@@ -6416,12 +6416,12 @@
         <v>2005</v>
       </c>
       <c r="F292">
-        <v>318.33999999999997</v>
+        <v>3.1833999999999998</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B293">
         <v>3486</v>
@@ -6436,12 +6436,12 @@
         <v>2005</v>
       </c>
       <c r="F293">
-        <v>372.48</v>
+        <v>3.7248000000000001</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B294">
         <v>3619</v>
@@ -6456,12 +6456,12 @@
         <v>2005</v>
       </c>
       <c r="F294">
-        <v>256.83999999999997</v>
+        <v>2.5683999999999996</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B295">
         <v>12237</v>
@@ -6476,12 +6476,12 @@
         <v>2005</v>
       </c>
       <c r="F295">
-        <v>312.35000000000002</v>
+        <v>3.1235000000000004</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B296">
         <v>1052</v>
@@ -6496,12 +6496,12 @@
         <v>2005</v>
       </c>
       <c r="F296">
-        <v>286.55</v>
+        <v>2.8654999999999999</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B297">
         <v>4164</v>
@@ -6516,12 +6516,12 @@
         <v>2005</v>
       </c>
       <c r="F297">
-        <v>315.70999999999998</v>
+        <v>3.1570999999999998</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B298">
         <v>765</v>
@@ -6536,12 +6536,12 @@
         <v>2005</v>
       </c>
       <c r="F298">
-        <v>274.57</v>
+        <v>2.7456999999999998</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B299">
         <v>5853</v>
@@ -6556,12 +6556,12 @@
         <v>2005</v>
       </c>
       <c r="F299">
-        <v>351.91</v>
+        <v>3.5191000000000003</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B300">
         <v>22777</v>
@@ -6576,12 +6576,12 @@
         <v>2005</v>
       </c>
       <c r="F300">
-        <v>303.41000000000003</v>
+        <v>3.0341000000000005</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B301">
         <v>2521</v>
@@ -6596,12 +6596,12 @@
         <v>2005</v>
       </c>
       <c r="F301">
-        <v>250.67</v>
+        <v>2.5066999999999999</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B302">
         <v>621</v>
@@ -6616,12 +6616,12 @@
         <v>2005</v>
       </c>
       <c r="F302">
-        <v>257.37</v>
+        <v>2.5737000000000001</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B303">
         <v>7442</v>
@@ -6636,12 +6636,12 @@
         <v>2005</v>
       </c>
       <c r="F303">
-        <v>288.62</v>
+        <v>2.8862000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B304">
         <v>6237</v>
@@ -6656,12 +6656,12 @@
         <v>2005</v>
       </c>
       <c r="F304">
-        <v>256.02999999999997</v>
+        <v>2.5602999999999998</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B305">
         <v>1795</v>
@@ -6676,12 +6676,12 @@
         <v>2005</v>
       </c>
       <c r="F305">
-        <v>348.3</v>
+        <v>3.4830000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B306">
         <v>5440</v>
@@ -6696,12 +6696,12 @@
         <v>2005</v>
       </c>
       <c r="F306">
-        <v>273.07</v>
+        <v>2.7307000000000001</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B307">
         <v>509</v>
@@ -6716,12 +6716,12 @@
         <v>2005</v>
       </c>
       <c r="F307">
-        <v>268.14999999999998</v>
+        <v>2.6814999999999998</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B308">
         <v>4717</v>
@@ -6736,12 +6736,12 @@
         <v>2010</v>
       </c>
       <c r="F308">
-        <v>310.55</v>
+        <v>3.1055000000000001</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B309">
         <v>695</v>
@@ -6756,12 +6756,12 @@
         <v>2010</v>
       </c>
       <c r="F309">
-        <v>215.68</v>
+        <v>2.1568000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B310">
         <v>6426</v>
@@ -6776,12 +6776,12 @@
         <v>2010</v>
       </c>
       <c r="F310">
-        <v>212.01</v>
+        <v>2.1200999999999999</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B311">
         <v>2879</v>
@@ -6796,12 +6796,12 @@
         <v>2010</v>
       </c>
       <c r="F311">
-        <v>322.61</v>
+        <v>3.2261000000000002</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B312">
         <v>37240</v>
@@ -6816,12 +6816,12 @@
         <v>2010</v>
       </c>
       <c r="F312">
-        <v>234.19</v>
+        <v>2.3418999999999999</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B313">
         <v>4995</v>
@@ -6836,12 +6836,12 @@
         <v>2010</v>
       </c>
       <c r="F313">
-        <v>205.59</v>
+        <v>2.0558999999999998</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B314">
         <v>3541</v>
@@ -6856,12 +6856,12 @@
         <v>2010</v>
       </c>
       <c r="F314">
-        <v>220.62</v>
+        <v>2.2061999999999999</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B315">
         <v>890</v>
@@ -6876,12 +6876,12 @@
         <v>2010</v>
       </c>
       <c r="F315">
-        <v>253.98</v>
+        <v>2.5398000000000001</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B316">
         <v>604</v>
@@ -6896,12 +6896,12 @@
         <v>2010</v>
       </c>
       <c r="F316">
-        <v>292.39</v>
+        <v>2.9238999999999997</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B317">
         <v>18759</v>
@@ -6916,12 +6916,12 @@
         <v>2010</v>
       </c>
       <c r="F317">
-        <v>234.72</v>
+        <v>2.3472</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B318">
         <v>9650</v>
@@ -6936,12 +6936,12 @@
         <v>2010</v>
       </c>
       <c r="F318">
-        <v>283.52999999999997</v>
+        <v>2.8352999999999997</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B319">
         <v>1311</v>
@@ -6956,12 +6956,12 @@
         <v>2010</v>
       </c>
       <c r="F319">
-        <v>199.47</v>
+        <v>1.9946999999999999</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B320">
         <v>1543</v>
@@ -6976,12 +6976,12 @@
         <v>2010</v>
       </c>
       <c r="F320">
-        <v>231.93</v>
+        <v>2.3193000000000001</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B321">
         <v>12784</v>
@@ -6996,12 +6996,12 @@
         <v>2010</v>
       </c>
       <c r="F321">
-        <v>262.43</v>
+        <v>2.6242999999999999</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B322">
         <v>6390</v>
@@ -7016,12 +7016,12 @@
         <v>2010</v>
       </c>
       <c r="F322">
-        <v>280.94</v>
+        <v>2.8094000000000001</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B323">
         <v>2977</v>
@@ -7036,12 +7036,12 @@
         <v>2010</v>
       </c>
       <c r="F323">
-        <v>251.03</v>
+        <v>2.5103</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B324">
         <v>2766</v>
@@ -7056,12 +7056,12 @@
         <v>2010</v>
       </c>
       <c r="F324">
-        <v>255.98</v>
+        <v>2.5598000000000001</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B325">
         <v>4270</v>
@@ -7076,12 +7076,12 @@
         <v>2010</v>
       </c>
       <c r="F325">
-        <v>299.19</v>
+        <v>2.9918999999999998</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B326">
         <v>4418</v>
@@ -7096,12 +7096,12 @@
         <v>2010</v>
       </c>
       <c r="F326">
-        <v>312.02</v>
+        <v>3.1201999999999996</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B327">
         <v>1298</v>
@@ -7116,12 +7116,12 @@
         <v>2010</v>
       </c>
       <c r="F327">
-        <v>223.23</v>
+        <v>2.2323</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B328">
         <v>5786</v>
@@ -7136,12 +7136,12 @@
         <v>2010</v>
       </c>
       <c r="F328">
-        <v>258.58999999999997</v>
+        <v>2.5858999999999996</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B329">
         <v>6532</v>
@@ -7156,12 +7156,12 @@
         <v>2010</v>
       </c>
       <c r="F329">
-        <v>216.34</v>
+        <v>2.1634000000000002</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B330">
         <v>9751</v>
@@ -7176,12 +7176,12 @@
         <v>2010</v>
       </c>
       <c r="F330">
-        <v>285.38</v>
+        <v>2.8538000000000001</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B331">
         <v>5217</v>
@@ -7196,12 +7196,12 @@
         <v>2010</v>
       </c>
       <c r="F331">
-        <v>193.32</v>
+        <v>1.9332</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B332">
         <v>2920</v>
@@ -7216,12 +7216,12 @@
         <v>2010</v>
       </c>
       <c r="F332">
-        <v>347.03</v>
+        <v>3.4702999999999999</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B333">
         <v>5929</v>
@@ -7236,12 +7236,12 @@
         <v>2010</v>
       </c>
       <c r="F333">
-        <v>291.20999999999998</v>
+        <v>2.9120999999999997</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B334">
         <v>979</v>
@@ -7256,12 +7256,12 @@
         <v>2010</v>
       </c>
       <c r="F334">
-        <v>225.59</v>
+        <v>2.2559</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B335">
         <v>1804</v>
@@ -7276,12 +7276,12 @@
         <v>2010</v>
       </c>
       <c r="F335">
-        <v>231.8</v>
+        <v>2.3180000000000001</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B336">
         <v>2696</v>
@@ -7296,12 +7296,12 @@
         <v>2010</v>
       </c>
       <c r="F336">
-        <v>261.57</v>
+        <v>2.6156999999999999</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B337">
         <v>1294</v>
@@ -7316,12 +7316,12 @@
         <v>2010</v>
       </c>
       <c r="F337">
-        <v>222.31</v>
+        <v>2.2231000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B338">
         <v>8733</v>
@@ -7336,12 +7336,12 @@
         <v>2010</v>
       </c>
       <c r="F338">
-        <v>255.19</v>
+        <v>2.5518999999999998</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B339">
         <v>2033</v>
@@ -7356,12 +7356,12 @@
         <v>2010</v>
       </c>
       <c r="F339">
-        <v>220.51</v>
+        <v>2.2050999999999998</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B340">
         <v>19116</v>
@@ -7376,12 +7376,12 @@
         <v>2010</v>
       </c>
       <c r="F340">
-        <v>269.44</v>
+        <v>2.6943999999999999</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B341">
         <v>9359</v>
@@ -7396,12 +7396,12 @@
         <v>2010</v>
       </c>
       <c r="F341">
-        <v>260.31</v>
+        <v>2.6031</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B342">
         <v>653</v>
@@ -7416,12 +7416,12 @@
         <v>2010</v>
       </c>
       <c r="F342">
-        <v>235.54</v>
+        <v>2.3553999999999999</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B343">
         <v>11341</v>
@@ -7436,12 +7436,12 @@
         <v>2010</v>
       </c>
       <c r="F343">
-        <v>275.20999999999998</v>
+        <v>2.7521</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B344">
         <v>3697</v>
@@ -7456,12 +7456,12 @@
         <v>2010</v>
       </c>
       <c r="F344">
-        <v>331</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B345">
         <v>3752</v>
@@ -7476,12 +7476,12 @@
         <v>2010</v>
       </c>
       <c r="F345">
-        <v>219.11</v>
+        <v>2.1911</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B346">
         <v>12530</v>
@@ -7496,12 +7496,12 @@
         <v>2010</v>
       </c>
       <c r="F346">
-        <v>267.41000000000003</v>
+        <v>2.6741000000000001</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B347">
         <v>1042</v>
@@ -7516,12 +7516,12 @@
         <v>2010</v>
       </c>
       <c r="F347">
-        <v>241.13</v>
+        <v>2.4112999999999998</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B348">
         <v>4563</v>
@@ -7536,12 +7536,12 @@
         <v>2010</v>
       </c>
       <c r="F348">
-        <v>271.31</v>
+        <v>2.7130999999999998</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B349">
         <v>799</v>
@@ -7556,12 +7556,12 @@
         <v>2010</v>
       </c>
       <c r="F349">
-        <v>236.23</v>
+        <v>2.3622999999999998</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B350">
         <v>6315</v>
@@ -7576,12 +7576,12 @@
         <v>2010</v>
       </c>
       <c r="F350">
-        <v>308.92</v>
+        <v>3.0891999999999999</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B351">
         <v>25200</v>
@@ -7596,12 +7596,12 @@
         <v>2010</v>
       </c>
       <c r="F351">
-        <v>264.92</v>
+        <v>2.6492</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B352">
         <v>2768</v>
@@ -7616,12 +7616,12 @@
         <v>2010</v>
       </c>
       <c r="F352">
-        <v>225.28</v>
+        <v>2.2528000000000001</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B353">
         <v>624</v>
@@ -7636,12 +7636,12 @@
         <v>2010</v>
       </c>
       <c r="F353">
-        <v>220.6</v>
+        <v>2.206</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B354">
         <v>7837</v>
@@ -7656,12 +7656,12 @@
         <v>2010</v>
       </c>
       <c r="F354">
-        <v>248.18</v>
+        <v>2.4818000000000002</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B355">
         <v>6713</v>
@@ -7676,12 +7676,12 @@
         <v>2010</v>
       </c>
       <c r="F355">
-        <v>225.08</v>
+        <v>2.2507999999999999</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B356">
         <v>1816</v>
@@ -7696,12 +7696,12 @@
         <v>2010</v>
       </c>
       <c r="F356">
-        <v>302.95</v>
+        <v>3.0295000000000001</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B357">
         <v>5626</v>
@@ -7716,12 +7716,12 @@
         <v>2010</v>
       </c>
       <c r="F357">
-        <v>237.28</v>
+        <v>2.3727999999999998</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B358">
         <v>550</v>
@@ -7736,7 +7736,7 @@
         <v>2010</v>
       </c>
       <c r="F358">
-        <v>237.15</v>
+        <v>2.3715000000000002</v>
       </c>
     </row>
   </sheetData>
